--- a/biology/Zoologie/Coluber_taeniatus/Coluber_taeniatus.xlsx
+++ b/biology/Zoologie/Coluber_taeniatus/Coluber_taeniatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber taeniatus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber taeniatus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce serpent se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ce serpent se rencontre :
 aux États-Unis dans l'Oregon, l'est de la Californie, le Nevada, l'ouest de l'Utah, l'ouest du Colorado, l'Arizona, le Nouveau-Mexique, le sud-ouest du Texas et le Washington ;
 au Mexique dans les États de Chihuahua, Coahuila, Durango, Nuevo León, Tamaulipas.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent strictement diurne[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent strictement diurne.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (20 décembre 2013)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (20 décembre 2013) :
 Coluber taeniatus girardi Stejneger &amp; Barbour, 1917
 Coluber taeniatus taeniatus (Hallowell, 1852)
 Coluber taeniatus schotti (Baird &amp; Girard, 1853) est considéré dans ReptileDatabase comme une espèce à part entière sous le nom de Coluber schotti.
-Coluber taeniatus ruthveni a été déplacé comme sous-espèce de Coluber schotti. Coluber taeniatus australis est maintenant synonyme de Coluber taeniatus ruthveni, donc de Coluber schotti[1].
+Coluber taeniatus ruthveni a été déplacé comme sous-espèce de Coluber schotti. Coluber taeniatus australis est maintenant synonyme de Coluber taeniatus ruthveni, donc de Coluber schotti.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Baird &amp; Girard, 1853 : Catalogue of North American Reptiles in the Museum of the Smithsonian Institution. Part 1.-Serpents. Smithsonian Institution, Washington, p. 1-172 (texte intégral).
 Hallowell, 1852 : Descriptions of new species of reptiles inhabiting North America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 6, p. 177-182 (texte intégral).
